--- a/Requisitos/Requisitos.xlsx
+++ b/Requisitos/Requisitos.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C5E36D-A49B-47CF-89B2-E214286612CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eff8379bedd918e8/Documentos/Estudos/Faculdade/MVP - Front/G01_AgendaFacilNAF/Requisitos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{25C5E36D-A49B-47CF-89B2-E214286612CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37298744-0E37-4A78-B37D-FD86231B3094}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-15" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>Código</t>
   </si>
@@ -102,12 +107,6 @@
     <t>RF6</t>
   </si>
   <si>
-    <t>O sistema deve permitir que os usuários agendem atendimentos de acordo com sua conveniência e que possam editar ou cancelar seus agendamentos.</t>
-  </si>
-  <si>
-    <t>Flexibilidade para o usuário ajustar o horário conforme sua necessidade.</t>
-  </si>
-  <si>
     <t>RF7</t>
   </si>
   <si>
@@ -123,12 +122,6 @@
     <t>RF8</t>
   </si>
   <si>
-    <t>O sistema deve permitir a simulação de lembretes de agendamento em forma de pop-up na interface.</t>
-  </si>
-  <si>
-    <t>Ajuda a reduzir ausências ao lembrar o usuário do compromisso.</t>
-  </si>
-  <si>
     <t>RF9</t>
   </si>
   <si>
@@ -168,12 +161,6 @@
     <t>RF13</t>
   </si>
   <si>
-    <t>O sistema deve permitir a criação de uma funcionalidade de "lista de espera" para horários já ocupados, permitindo que os usuários sejam notificados caso um horário se torne disponível.</t>
-  </si>
-  <si>
-    <t>Aumenta a flexibilidade e a ocupação da agenda, além de melhorar a experiência do usuário.</t>
-  </si>
-  <si>
     <t>RF14</t>
   </si>
   <si>
@@ -186,57 +173,33 @@
     <t>RF15</t>
   </si>
   <si>
-    <t>O sistema deve permitir que os usuários agendem atendimentos virtuais (online) ou presenciais, com a opção de escolher a modalidade ao fazer o agendamento.</t>
-  </si>
-  <si>
     <t>Necessário para atender diferentes necessidades dos usuários (presencial ou remoto).</t>
   </si>
   <si>
     <t>RF16</t>
   </si>
   <si>
-    <t>Edições só poderão ser permitidas até 24h antes do agendamento, visto que é necessário a organização para a prestação do agendamento.</t>
-  </si>
-  <si>
-    <t>Garantia de organização e controle da agenda, permitindo que as mudanças não impactem a logística do atendimento.</t>
-  </si>
-  <si>
     <t>RF17</t>
   </si>
   <si>
-    <t>Bloco com a legenda de cores respectivas dos status da agenda (disponível, reservado - em vermelho).</t>
-  </si>
-  <si>
     <t>Melhora a visualização e o entendimento rápido sobre a situação dos horários.</t>
   </si>
   <si>
     <t>RF18</t>
   </si>
   <si>
-    <t>Permitir que somente o próprio usuário do agendamento ou usuários administradores cancelem ou editem um agendamento. Não permitir que um usuário sem privilégios edite ou cancele agendamento de outro.</t>
-  </si>
-  <si>
     <t>Garante a privacidade e o controle sobre os agendamentos, evitando que usuários não autorizados modifiquem as reservas.</t>
   </si>
   <si>
     <t>RF19</t>
   </si>
   <si>
-    <t>Permitir que o sistema encaminhe um email ou mensagem via WhatsApp automática de lembrete e confirmação 24h antes do agendamento.</t>
-  </si>
-  <si>
     <t>Aumenta a probabilidade de comparecimento ao envio de lembretes automáticos e confirmações.</t>
   </si>
   <si>
     <t>RF20</t>
   </si>
   <si>
-    <t>Proporcionar que os usuários administradores possam bloquear diversos dias da agenda em massa, devido a períodos de férias e recessos.</t>
-  </si>
-  <si>
-    <t>Facilita o gerenciamento de férias e recessos, evitando agendamentos em períodos indisponíveis.</t>
-  </si>
-  <si>
     <t>RF21</t>
   </si>
   <si>
@@ -276,42 +239,18 @@
     <t>RF25</t>
   </si>
   <si>
-    <t>O sistema deve oferecer uma boa usabilidade com recursos de acessibilidade.</t>
-  </si>
-  <si>
-    <t>Necessário para garantir que o sistema seja acessível para todos os usuários, incluindo aqueles com deficiências.</t>
-  </si>
-  <si>
-    <t>RF26</t>
-  </si>
-  <si>
-    <t>O sistema deve permitir a personalização do tema (modo claro/escuro).</t>
-  </si>
-  <si>
-    <t>A personalização permite que os usuários ajustem a interface de acordo com suas preferências, melhorando o conforto visual.</t>
-  </si>
-  <si>
-    <t>RF27</t>
-  </si>
-  <si>
     <t>O sistema deve exibir mensagens de erro claras e amigáveis.</t>
   </si>
   <si>
     <t>Mensagens de erro claras ajudam os usuários a entender e corrigir problemas rapidamente.</t>
   </si>
   <si>
-    <t>RF28</t>
-  </si>
-  <si>
     <t>O sistema deve carregar de forma eficiente imagens e outros recursos multimídia.</t>
   </si>
   <si>
     <t>Garante um tempo de resposta rápido e uma experiência sem interrupções, mesmo para conexões lentas.</t>
   </si>
   <si>
-    <t>RF29</t>
-  </si>
-  <si>
     <t>Ao abrir a data e horário para agendamento, os campos obrigatórios devem ser: nome completo, e-mail ou celular e o preenchimento de um campo de motivo da solicitação, este deve ser preenchido com no mínimo 15 caracteres.</t>
   </si>
   <si>
@@ -396,35 +335,47 @@
     <t>RNF9</t>
   </si>
   <si>
-    <t>O sistema deve ter um mecanismo de backup regular (diário, semanal) para garantir a integridade dos dados e permitir recuperação em caso de falhas.</t>
-  </si>
-  <si>
-    <t>Garante que os dados estejam protegidos e possam ser recuperados em caso de falhas no sistema ou imprevistos.</t>
-  </si>
-  <si>
-    <t>RNF10</t>
-  </si>
-  <si>
-    <t>O sistema deve ser acessível, atendendo às diretrizes de acessibilidade para pessoas com deficiências, como a utilização de leitores de tela e navegação por teclado.</t>
-  </si>
-  <si>
-    <t>Crucial para garantir que o sistema esteja disponível para todos, sem exceção, incluindo pessoas com deficiências.</t>
-  </si>
-  <si>
-    <t>RNF11</t>
-  </si>
-  <si>
     <t>Ter um quadro de avisos como um live desktop interativo, com novidades e comunicados.</t>
   </si>
   <si>
     <t>Melhorar a comunicação interna e com os usuários, mantendo todos atualizados sobre eventos ou mudanças importantes.</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que os usuários agendem atendimentos de acordo com sua conveniência e que possam cancelar seus agendamentos.</t>
+  </si>
+  <si>
+    <t>Flexibilidade para o usuário efetuar cancelamento conforme sua necessidade.</t>
+  </si>
+  <si>
+    <t>Administrador consegue fazer envio de e-mails para os demais perfis</t>
+  </si>
+  <si>
+    <t>Facilitar a comunicação do administrador com os demais usuários</t>
+  </si>
+  <si>
+    <t>Aluno consegue solicitar auxilio para agendamentos especificos</t>
+  </si>
+  <si>
+    <t>Permite que o estudante tenha um orientador nos agendamentos complexos</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que os usuários agendem atendimentos para pessoas físicas ou juridicas, com a opção de escolher a modalidade ao fazer o agendamento.</t>
+  </si>
+  <si>
+    <t>Bloco com os status dos agendamento  (disponível-verde, reservado - em vermelho).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir que somente o próprio usuário do agendamento cancelem um agendamento. </t>
+  </si>
+  <si>
+    <t>Permitir que o sistema encaminhe um email ou mensagem via WhatsApp automática de confirmação do agendamento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +390,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -458,24 +422,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B7DAE43E-0A2B-4318-8AF5-FE2F8F3C62C8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -809,716 +783,686 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43465921-E43D-4FA4-8C3E-0045EABD0F5F}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="72.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="83.42578125" customWidth="1"/>
+    <col min="2" max="2" width="72.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="83.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="29.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="29.25">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="29.25">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="29.25">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="29.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="29.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="29.25">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="29.25">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="29.25">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="43.5">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="29.25">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.5">
-      <c r="A14" s="1" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="29.25">
-      <c r="A15" s="1" t="s">
+      <c r="B17" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="B18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="29.25">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="29.25">
-      <c r="A17" s="1" t="s">
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29.25">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.5">
-      <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29.25">
-      <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="B24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29.25">
-      <c r="A21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="29.25">
-      <c r="A22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29.25">
-      <c r="A23" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="29.25">
-      <c r="A24" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="E27" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29.25">
-      <c r="A25" s="1" t="s">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29.25">
-      <c r="A26" s="1" t="s">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29.25">
-      <c r="A27" s="1" t="s">
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="C30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="C31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29.25">
-      <c r="A29" s="1" t="s">
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="C32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="43.5">
-      <c r="A30" s="1" t="s">
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29.25">
-      <c r="A31" s="1" t="s">
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="2" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="29.25">
-      <c r="A32" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.5">
-      <c r="A33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="29.25">
-      <c r="A34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29.25">
-      <c r="A35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="43.5">
-      <c r="A36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="29.25">
-      <c r="A37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29.25">
-      <c r="A38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="29.25">
-      <c r="A39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="43.5">
-      <c r="A40" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="29.25">
-      <c r="A41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>128</v>
-      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
